--- a/src/Avistamientos/Playas.xlsx
+++ b/src/Avistamientos/Playas.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C438"/>
+  <dimension ref="A1:C524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-42.75</v>
+        <v>-42.66666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>-74</v>
+        <v>-74.08333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-41.75</v>
+        <v>-41.83333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>-73.75</v>
+        <v>-73.83333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-41.75</v>
+        <v>-41.83333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>-73.75</v>
+        <v>-73.5</v>
       </c>
     </row>
     <row r="5">
@@ -416,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-41.75</v>
+        <v>-41.66666666666666</v>
       </c>
       <c r="C5" t="n">
         <v>-73.75</v>
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-41.75</v>
+        <v>-41.66666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>-73.5</v>
+        <v>-73.75</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-41.5</v>
+        <v>-41.58333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>-73.75</v>
+        <v>-73.66666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-41</v>
+        <v>-40.91666666666666</v>
       </c>
       <c r="C8" t="n">
-        <v>-73.75</v>
+        <v>-73.83333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -460,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-40.5</v>
+        <v>-40.58333333333333</v>
       </c>
       <c r="C9" t="n">
         <v>-73.75</v>
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-40.5</v>
+        <v>-40.58333333333333</v>
       </c>
       <c r="C10" t="n">
         <v>-73.75</v>
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-40</v>
+        <v>-39.91666666666666</v>
       </c>
       <c r="C11" t="n">
-        <v>-73.5</v>
+        <v>-73.41666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-39.75</v>
+        <v>-39.83333333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>-73.5</v>
+        <v>-73.41666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-38.75</v>
+        <v>-38.83333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>-73.5</v>
+        <v>-73.41666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>-38.75</v>
       </c>
       <c r="C14" t="n">
-        <v>-73.5</v>
+        <v>-73.41666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-37.75</v>
+        <v>-37.66666666666666</v>
       </c>
       <c r="C15" t="n">
-        <v>-73.75</v>
+        <v>-73.66666666666666</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-37.5</v>
+        <v>-37.58333333333333</v>
       </c>
       <c r="C16" t="n">
-        <v>-73.75</v>
+        <v>-73.66666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-37.5</v>
+        <v>-37.58333333333333</v>
       </c>
       <c r="C17" t="n">
-        <v>-73.75</v>
+        <v>-73.66666666666666</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-37.5</v>
+        <v>-37.58333333333333</v>
       </c>
       <c r="C18" t="n">
-        <v>-73.75</v>
+        <v>-73.66666666666666</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-37.5</v>
+        <v>-37.58333333333333</v>
       </c>
       <c r="C19" t="n">
-        <v>-73.75</v>
+        <v>-73.66666666666666</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-37.5</v>
+        <v>-37.58333333333333</v>
       </c>
       <c r="C20" t="n">
-        <v>-73.75</v>
+        <v>-73.66666666666666</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-37.25</v>
+        <v>-37.16666666666666</v>
       </c>
       <c r="C21" t="n">
-        <v>-73.5</v>
+        <v>-73.58333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-37.25</v>
+        <v>-37.16666666666666</v>
       </c>
       <c r="C22" t="n">
-        <v>-73.5</v>
+        <v>-73.58333333333333</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-37.25</v>
+        <v>-37.16666666666666</v>
       </c>
       <c r="C23" t="n">
-        <v>-73.25</v>
+        <v>-73.16666666666666</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-37</v>
+        <v>-37.08333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>-73.25</v>
+        <v>-73.16666666666666</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-37</v>
+        <v>-37.08333333333333</v>
       </c>
       <c r="C25" t="n">
-        <v>-73.25</v>
+        <v>-73.16666666666666</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-37</v>
+        <v>-37.08333333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>-73.25</v>
+        <v>-73.16666666666666</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>-37</v>
       </c>
       <c r="C27" t="n">
-        <v>-73.25</v>
+        <v>-73.16666666666666</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>-36.75</v>
       </c>
       <c r="C28" t="n">
-        <v>-73.25</v>
+        <v>-73.16666666666666</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>-36.75</v>
       </c>
       <c r="C29" t="n">
-        <v>-73.25</v>
+        <v>-73.16666666666666</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>-36.75</v>
       </c>
       <c r="C30" t="n">
-        <v>-73.25</v>
+        <v>-73.16666666666666</v>
       </c>
     </row>
     <row r="31">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-36.75</v>
+        <v>-36.66666666666666</v>
       </c>
       <c r="C33" t="n">
-        <v>-73</v>
+        <v>-72.91666666666666</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-36.5</v>
+        <v>-36.58333333333333</v>
       </c>
       <c r="C34" t="n">
-        <v>-73</v>
+        <v>-72.91666666666666</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>-36.5</v>
       </c>
       <c r="C35" t="n">
-        <v>-73</v>
+        <v>-72.91666666666666</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>-36.5</v>
       </c>
       <c r="C36" t="n">
-        <v>-73</v>
+        <v>-72.91666666666666</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>-36.5</v>
       </c>
       <c r="C37" t="n">
-        <v>-73</v>
+        <v>-72.91666666666666</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-36.25</v>
+        <v>-36.33333333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>-72.75</v>
+        <v>-72.83333333333333</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-35.75</v>
+        <v>-35.83333333333333</v>
       </c>
       <c r="C39" t="n">
-        <v>-72.75</v>
+        <v>-72.66666666666666</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-35</v>
+        <v>-34.91666666666666</v>
       </c>
       <c r="C40" t="n">
-        <v>-72.25</v>
+        <v>-72.16666666666666</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-35</v>
+        <v>-34.91666666666666</v>
       </c>
       <c r="C41" t="n">
-        <v>-72.25</v>
+        <v>-72.16666666666666</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-35</v>
+        <v>-34.91666666666666</v>
       </c>
       <c r="C42" t="n">
-        <v>-72.25</v>
+        <v>-72.16666666666666</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-35</v>
+        <v>-34.91666666666666</v>
       </c>
       <c r="C43" t="n">
-        <v>-72.25</v>
+        <v>-72.16666666666666</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>-34.75</v>
       </c>
       <c r="C44" t="n">
-        <v>-72</v>
+        <v>-72.08333333333333</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>-34.75</v>
       </c>
       <c r="C45" t="n">
-        <v>-72</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="46">
@@ -991,7 +991,7 @@
         <v>-34.75</v>
       </c>
       <c r="C57" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-34.75</v>
+        <v>-34.66666666666666</v>
       </c>
       <c r="C58" t="n">
-        <v>-71.5</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-34.75</v>
+        <v>-34.66666666666666</v>
       </c>
       <c r="C59" t="n">
-        <v>-71.5</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-34.5</v>
+        <v>-34.66666666666666</v>
       </c>
       <c r="C60" t="n">
-        <v>-72</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-34.5</v>
+        <v>-34.66666666666666</v>
       </c>
       <c r="C61" t="n">
-        <v>-72</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-34.5</v>
+        <v>-34.66666666666666</v>
       </c>
       <c r="C62" t="n">
-        <v>-72</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="63">
@@ -1087,7 +1087,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-34.5</v>
+        <v>-34.41666666666666</v>
       </c>
       <c r="C66" t="n">
         <v>-72</v>
@@ -1098,7 +1098,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-34.5</v>
+        <v>-34.41666666666666</v>
       </c>
       <c r="C67" t="n">
         <v>-72</v>
@@ -1109,7 +1109,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-34.5</v>
+        <v>-34.41666666666666</v>
       </c>
       <c r="C68" t="n">
         <v>-72</v>
@@ -1120,7 +1120,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-34.5</v>
+        <v>-34.41666666666666</v>
       </c>
       <c r="C69" t="n">
         <v>-72</v>
@@ -1131,7 +1131,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-34.5</v>
+        <v>-34.41666666666666</v>
       </c>
       <c r="C70" t="n">
         <v>-72</v>
@@ -1142,7 +1142,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-34.25</v>
+        <v>-34.41666666666666</v>
       </c>
       <c r="C71" t="n">
         <v>-72</v>
@@ -1153,7 +1153,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-34</v>
+        <v>-34.41666666666666</v>
       </c>
       <c r="C72" t="n">
         <v>-72</v>
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-34</v>
+        <v>-34.41666666666666</v>
       </c>
       <c r="C73" t="n">
-        <v>-71.75</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-33.75</v>
+        <v>-34.41666666666666</v>
       </c>
       <c r="C74" t="n">
-        <v>-71.75</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-33.75</v>
+        <v>-34.33333333333333</v>
       </c>
       <c r="C75" t="n">
-        <v>-71.75</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-33.75</v>
+        <v>-34</v>
       </c>
       <c r="C76" t="n">
-        <v>-71.75</v>
+        <v>-71.91666666666666</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-33.75</v>
+        <v>-33.91666666666666</v>
       </c>
       <c r="C77" t="n">
-        <v>-71.75</v>
+        <v>-71.83333333333333</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-33.75</v>
+        <v>-33.66666666666666</v>
       </c>
       <c r="C78" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-33.75</v>
+        <v>-33.66666666666666</v>
       </c>
       <c r="C79" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-33.5</v>
+        <v>-33.66666666666666</v>
       </c>
       <c r="C80" t="n">
-        <v>-78.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-33.5</v>
+        <v>-33.66666666666666</v>
       </c>
       <c r="C81" t="n">
-        <v>-78.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-33.5</v>
+        <v>-33.66666666666666</v>
       </c>
       <c r="C82" t="n">
-        <v>-78.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-33.5</v>
+        <v>-33.66666666666666</v>
       </c>
       <c r="C83" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-33.5</v>
+        <v>-33.58333333333333</v>
       </c>
       <c r="C84" t="n">
-        <v>-71.75</v>
+        <v>-78.83333333333333</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-33.5</v>
+        <v>-33.58333333333333</v>
       </c>
       <c r="C85" t="n">
-        <v>-71.75</v>
+        <v>-78.83333333333333</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-33.5</v>
+        <v>-33.58333333333333</v>
       </c>
       <c r="C86" t="n">
-        <v>-71.75</v>
+        <v>-78.83333333333333</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-33.5</v>
+        <v>-33.58333333333333</v>
       </c>
       <c r="C87" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-33.5</v>
+        <v>-33.58333333333333</v>
       </c>
       <c r="C88" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-33.5</v>
+        <v>-33.58333333333333</v>
       </c>
       <c r="C89" t="n">
-        <v>-71.75</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-33.5</v>
+        <v>-33.58333333333333</v>
       </c>
       <c r="C90" t="n">
-        <v>-71.75</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-33.5</v>
+        <v>-33.58333333333333</v>
       </c>
       <c r="C91" t="n">
-        <v>-71.75</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>-33.5</v>
       </c>
       <c r="C92" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>-33.5</v>
       </c>
       <c r="C93" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>-33.5</v>
       </c>
       <c r="C94" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>-33.5</v>
       </c>
       <c r="C95" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>-33.5</v>
       </c>
       <c r="C96" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>-33.5</v>
       </c>
       <c r="C97" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>-33.5</v>
       </c>
       <c r="C98" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>-33.5</v>
       </c>
       <c r="C99" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>-33.5</v>
       </c>
       <c r="C100" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>-33.5</v>
       </c>
       <c r="C101" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>-33.5</v>
       </c>
       <c r="C102" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>-33.5</v>
       </c>
       <c r="C103" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>-33.5</v>
       </c>
       <c r="C104" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>-33.5</v>
       </c>
       <c r="C105" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>-33.5</v>
       </c>
       <c r="C106" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>-33.5</v>
       </c>
       <c r="C107" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>-33.5</v>
       </c>
       <c r="C108" t="n">
-        <v>-71.25</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>-33.5</v>
       </c>
       <c r="C109" t="n">
-        <v>-71.25</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>-33.5</v>
       </c>
       <c r="C110" t="n">
-        <v>-71.25</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>-33.5</v>
       </c>
       <c r="C111" t="n">
-        <v>-71.25</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-33.5</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C112" t="n">
-        <v>-71.25</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-33.5</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C113" t="n">
-        <v>-71.25</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-33.25</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C114" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-33.25</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C115" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-33.25</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C116" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-33.25</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C117" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-33.25</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C118" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-33.25</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C119" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-33.25</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C120" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-33.25</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C121" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-33.25</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C122" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-33.25</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C123" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-33</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C124" t="n">
-        <v>-71.75</v>
+        <v>-71.33333333333333</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-33</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C125" t="n">
-        <v>-71.75</v>
+        <v>-71.33333333333333</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-33</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C126" t="n">
-        <v>-71.75</v>
+        <v>-71.33333333333333</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-33</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C127" t="n">
-        <v>-71.75</v>
+        <v>-71.33333333333333</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-33</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C128" t="n">
-        <v>-71.75</v>
+        <v>-71.33333333333333</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-33</v>
+        <v>-33.41666666666666</v>
       </c>
       <c r="C129" t="n">
-        <v>-71.75</v>
+        <v>-71.33333333333333</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-33</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="C130" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-33</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="C131" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-33</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="C132" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-33</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="C133" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-33</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="C134" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-33</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="C135" t="n">
-        <v>-71.75</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-33</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="C136" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-33</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="C137" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-33</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="C138" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-33</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="C139" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-33</v>
+        <v>-33.25</v>
       </c>
       <c r="C140" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-33</v>
+        <v>-33.08333333333333</v>
       </c>
       <c r="C141" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-33</v>
+        <v>-33.08333333333333</v>
       </c>
       <c r="C142" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-33</v>
+        <v>-33.08333333333333</v>
       </c>
       <c r="C143" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>-33</v>
       </c>
       <c r="C144" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>-33</v>
       </c>
       <c r="C145" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>-33</v>
       </c>
       <c r="C146" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>-33</v>
       </c>
       <c r="C147" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>-33</v>
       </c>
       <c r="C148" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>-33</v>
       </c>
       <c r="C149" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>-33</v>
       </c>
       <c r="C150" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>-33</v>
       </c>
       <c r="C151" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>-33</v>
       </c>
       <c r="C152" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>-33</v>
       </c>
       <c r="C153" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C154" t="n">
-        <v>-71.5</v>
+        <v>-71.66666666666666</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C155" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C156" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C157" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C158" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C159" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C160" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C161" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C162" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C163" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C164" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C165" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C166" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C167" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C168" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C169" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C170" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C171" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-32.75</v>
+        <v>-33</v>
       </c>
       <c r="C172" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-32.75</v>
+        <v>-32.91666666666666</v>
       </c>
       <c r="C173" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="174">
@@ -2275,7 +2275,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-32.75</v>
+        <v>-32.91666666666666</v>
       </c>
       <c r="C174" t="n">
         <v>-71.5</v>
@@ -2286,7 +2286,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-32.75</v>
+        <v>-32.91666666666666</v>
       </c>
       <c r="C175" t="n">
         <v>-71.5</v>
@@ -2297,7 +2297,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-32.75</v>
+        <v>-32.91666666666666</v>
       </c>
       <c r="C176" t="n">
         <v>-71.5</v>
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C177" t="n">
-        <v>-71.5</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="178">
@@ -2319,7 +2319,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C178" t="n">
         <v>-71.5</v>
@@ -2330,7 +2330,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C179" t="n">
         <v>-71.5</v>
@@ -2341,7 +2341,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C180" t="n">
         <v>-71.5</v>
@@ -2352,7 +2352,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C181" t="n">
         <v>-71.5</v>
@@ -2363,7 +2363,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C182" t="n">
         <v>-71.5</v>
@@ -2374,7 +2374,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C183" t="n">
         <v>-71.5</v>
@@ -2385,7 +2385,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C184" t="n">
         <v>-71.5</v>
@@ -2396,7 +2396,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C185" t="n">
         <v>-71.5</v>
@@ -2407,7 +2407,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C186" t="n">
         <v>-71.5</v>
@@ -2418,7 +2418,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C187" t="n">
         <v>-71.5</v>
@@ -2429,7 +2429,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C188" t="n">
         <v>-71.5</v>
@@ -2440,7 +2440,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C189" t="n">
         <v>-71.5</v>
@@ -2451,7 +2451,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-32.75</v>
+        <v>-32.83333333333333</v>
       </c>
       <c r="C190" t="n">
         <v>-71.5</v>
@@ -2462,7 +2462,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C191" t="n">
         <v>-71.5</v>
@@ -2473,7 +2473,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C192" t="n">
         <v>-71.5</v>
@@ -2484,7 +2484,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C193" t="n">
         <v>-71.5</v>
@@ -2495,7 +2495,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C194" t="n">
         <v>-71.5</v>
@@ -2506,7 +2506,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C195" t="n">
         <v>-71.5</v>
@@ -2517,7 +2517,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C196" t="n">
         <v>-71.5</v>
@@ -2528,7 +2528,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C197" t="n">
         <v>-71.5</v>
@@ -2539,7 +2539,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C198" t="n">
         <v>-71.5</v>
@@ -2550,7 +2550,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C199" t="n">
         <v>-71.5</v>
@@ -2561,7 +2561,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C200" t="n">
         <v>-71.5</v>
@@ -2572,7 +2572,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C201" t="n">
         <v>-71.5</v>
@@ -2583,7 +2583,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C202" t="n">
         <v>-71.5</v>
@@ -2594,7 +2594,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C203" t="n">
         <v>-71.5</v>
@@ -2605,7 +2605,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C204" t="n">
         <v>-71.5</v>
@@ -2616,7 +2616,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C205" t="n">
         <v>-71.5</v>
@@ -2627,7 +2627,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C206" t="n">
         <v>-71.5</v>
@@ -2638,7 +2638,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C207" t="n">
         <v>-71.5</v>
@@ -2649,7 +2649,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C208" t="n">
         <v>-71.5</v>
@@ -2660,7 +2660,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C209" t="n">
         <v>-71.5</v>
@@ -2671,7 +2671,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C210" t="n">
         <v>-71.5</v>
@@ -2682,7 +2682,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C211" t="n">
         <v>-71.5</v>
@@ -2693,7 +2693,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C212" t="n">
         <v>-71.5</v>
@@ -2704,7 +2704,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C213" t="n">
         <v>-71.5</v>
@@ -2715,7 +2715,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C214" t="n">
         <v>-71.5</v>
@@ -2726,7 +2726,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-32.5</v>
+        <v>-32.75</v>
       </c>
       <c r="C215" t="n">
         <v>-71.5</v>
@@ -2737,10 +2737,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-32.5</v>
+        <v>-32.66666666666666</v>
       </c>
       <c r="C216" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="217">
@@ -2748,10 +2748,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-32.5</v>
+        <v>-32.66666666666666</v>
       </c>
       <c r="C217" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="218">
@@ -2759,10 +2759,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-32.5</v>
+        <v>-32.66666666666666</v>
       </c>
       <c r="C218" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="219">
@@ -2770,10 +2770,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-32.5</v>
+        <v>-32.66666666666666</v>
       </c>
       <c r="C219" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="220">
@@ -2781,10 +2781,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-32.5</v>
+        <v>-32.66666666666666</v>
       </c>
       <c r="C220" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="221">
@@ -2792,10 +2792,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-32.5</v>
+        <v>-32.66666666666666</v>
       </c>
       <c r="C221" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="222">
@@ -2803,10 +2803,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-32.5</v>
+        <v>-32.66666666666666</v>
       </c>
       <c r="C222" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="223">
@@ -2814,10 +2814,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-32.5</v>
+        <v>-32.66666666666666</v>
       </c>
       <c r="C223" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="224">
@@ -2825,10 +2825,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-32.5</v>
+        <v>-32.66666666666666</v>
       </c>
       <c r="C224" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="225">
@@ -2836,7 +2836,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-32.5</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C225" t="n">
         <v>-71.5</v>
@@ -2847,7 +2847,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-32.5</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C226" t="n">
         <v>-71.5</v>
@@ -2858,7 +2858,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-32.5</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C227" t="n">
         <v>-71.5</v>
@@ -2869,7 +2869,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-32.5</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C228" t="n">
         <v>-71.5</v>
@@ -2880,7 +2880,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-32.5</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C229" t="n">
         <v>-71.5</v>
@@ -2891,7 +2891,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-32.5</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C230" t="n">
         <v>-71.5</v>
@@ -2902,7 +2902,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-32.5</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C231" t="n">
         <v>-71.5</v>
@@ -2913,7 +2913,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-32.5</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C232" t="n">
         <v>-71.5</v>
@@ -2924,7 +2924,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-32.5</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C233" t="n">
         <v>-71.5</v>
@@ -2935,10 +2935,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C234" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="235">
@@ -2946,10 +2946,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C235" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="236">
@@ -2957,10 +2957,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C236" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="237">
@@ -2968,10 +2968,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C237" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="238">
@@ -2979,10 +2979,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C238" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="239">
@@ -2990,10 +2990,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C239" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="240">
@@ -3001,10 +3001,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C240" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="241">
@@ -3012,10 +3012,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C241" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="242">
@@ -3023,10 +3023,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C242" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="243">
@@ -3034,10 +3034,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C243" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="244">
@@ -3045,10 +3045,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C244" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="245">
@@ -3056,10 +3056,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-32.25</v>
+        <v>-32.58333333333333</v>
       </c>
       <c r="C245" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="246">
@@ -3067,7 +3067,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-32.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C246" t="n">
         <v>-71.5</v>
@@ -3078,7 +3078,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-32.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C247" t="n">
         <v>-71.5</v>
@@ -3089,7 +3089,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-32.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C248" t="n">
         <v>-71.5</v>
@@ -3100,7 +3100,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-32.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C249" t="n">
         <v>-71.5</v>
@@ -3111,7 +3111,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-32</v>
+        <v>-32.5</v>
       </c>
       <c r="C250" t="n">
         <v>-71.5</v>
@@ -3122,7 +3122,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-31.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C251" t="n">
         <v>-71.5</v>
@@ -3133,7 +3133,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-30.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C252" t="n">
         <v>-71.5</v>
@@ -3144,10 +3144,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-30.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C253" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="254">
@@ -3155,10 +3155,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-30.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C254" t="n">
-        <v>-71.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="255">
@@ -3166,10 +3166,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-30</v>
+        <v>-32.5</v>
       </c>
       <c r="C255" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="256">
@@ -3177,10 +3177,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-30</v>
+        <v>-32.5</v>
       </c>
       <c r="C256" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="257">
@@ -3188,10 +3188,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-28.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C257" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="258">
@@ -3199,10 +3199,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-28.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C258" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="259">
@@ -3210,10 +3210,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-28.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C259" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="260">
@@ -3221,10 +3221,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-28.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C260" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="261">
@@ -3232,10 +3232,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-28.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C261" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="262">
@@ -3243,10 +3243,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-28.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C262" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="263">
@@ -3254,10 +3254,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-28.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C263" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="264">
@@ -3265,10 +3265,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-28.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C264" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="265">
@@ -3276,10 +3276,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-28.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C265" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="266">
@@ -3287,10 +3287,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-28.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C266" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="267">
@@ -3298,10 +3298,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-28.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C267" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="268">
@@ -3309,10 +3309,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-28</v>
+        <v>-32.5</v>
       </c>
       <c r="C268" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="269">
@@ -3320,10 +3320,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-28</v>
+        <v>-32.5</v>
       </c>
       <c r="C269" t="n">
-        <v>-71.25</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="270">
@@ -3331,10 +3331,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-27.75</v>
+        <v>-32.5</v>
       </c>
       <c r="C270" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="271">
@@ -3342,10 +3342,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-27.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C271" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="272">
@@ -3353,10 +3353,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-27.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C272" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="273">
@@ -3364,10 +3364,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-27.5</v>
+        <v>-32.5</v>
       </c>
       <c r="C273" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="274">
@@ -3375,10 +3375,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-27.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C274" t="n">
-        <v>-109.5</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="275">
@@ -3386,10 +3386,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-27.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C275" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="276">
@@ -3397,10 +3397,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-27.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C276" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="277">
@@ -3408,10 +3408,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-27.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C277" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="278">
@@ -3419,10 +3419,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-27.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C278" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="279">
@@ -3430,10 +3430,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-27.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C279" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="280">
@@ -3441,10 +3441,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-27.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C280" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="281">
@@ -3452,10 +3452,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-27.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C281" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="282">
@@ -3463,10 +3463,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-27.25</v>
+        <v>-32.5</v>
       </c>
       <c r="C282" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="283">
@@ -3474,10 +3474,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-27.25</v>
+        <v>-32.41666666666666</v>
       </c>
       <c r="C283" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="284">
@@ -3485,10 +3485,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-27.25</v>
+        <v>-32.41666666666666</v>
       </c>
       <c r="C284" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="285">
@@ -3496,10 +3496,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-27.25</v>
+        <v>-32.41666666666666</v>
       </c>
       <c r="C285" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="286">
@@ -3507,10 +3507,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-27.25</v>
+        <v>-32.33333333333333</v>
       </c>
       <c r="C286" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="287">
@@ -3518,10 +3518,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-27.25</v>
+        <v>-32.33333333333333</v>
       </c>
       <c r="C287" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="288">
@@ -3529,10 +3529,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-27.25</v>
+        <v>-32.33333333333333</v>
       </c>
       <c r="C288" t="n">
-        <v>-70.75</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="289">
@@ -3540,10 +3540,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-27.25</v>
+        <v>-32.33333333333333</v>
       </c>
       <c r="C289" t="n">
-        <v>-70.75</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="290">
@@ -3551,10 +3551,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-27.25</v>
+        <v>-32.33333333333333</v>
       </c>
       <c r="C290" t="n">
-        <v>-70.75</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="291">
@@ -3562,10 +3562,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-27.25</v>
+        <v>-32.33333333333333</v>
       </c>
       <c r="C291" t="n">
-        <v>-70.75</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="292">
@@ -3573,10 +3573,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-27.25</v>
+        <v>-32.33333333333333</v>
       </c>
       <c r="C292" t="n">
-        <v>-70.75</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="293">
@@ -3584,10 +3584,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-27.25</v>
+        <v>-32.25</v>
       </c>
       <c r="C293" t="n">
-        <v>-70.75</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="294">
@@ -3595,10 +3595,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-27.25</v>
+        <v>-32.25</v>
       </c>
       <c r="C294" t="n">
-        <v>-70.75</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="295">
@@ -3606,10 +3606,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-27.25</v>
+        <v>-32.25</v>
       </c>
       <c r="C295" t="n">
-        <v>-70.75</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="296">
@@ -3617,10 +3617,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-27.25</v>
+        <v>-32.25</v>
       </c>
       <c r="C296" t="n">
-        <v>-70.75</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="297">
@@ -3628,10 +3628,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-27.25</v>
+        <v>-32.25</v>
       </c>
       <c r="C297" t="n">
-        <v>-70.75</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="298">
@@ -3639,10 +3639,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-27</v>
+        <v>-32.25</v>
       </c>
       <c r="C298" t="n">
-        <v>-109.25</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="299">
@@ -3650,10 +3650,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-27</v>
+        <v>-32.25</v>
       </c>
       <c r="C299" t="n">
-        <v>-109.25</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="300">
@@ -3661,10 +3661,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-27</v>
+        <v>-32.25</v>
       </c>
       <c r="C300" t="n">
-        <v>-109.25</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="301">
@@ -3672,10 +3672,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-27</v>
+        <v>-32.25</v>
       </c>
       <c r="C301" t="n">
-        <v>-109.25</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="302">
@@ -3683,10 +3683,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-27</v>
+        <v>-32.16666666666666</v>
       </c>
       <c r="C302" t="n">
-        <v>-109.25</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="303">
@@ -3694,10 +3694,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-27</v>
+        <v>-32.08333333333333</v>
       </c>
       <c r="C303" t="n">
-        <v>-71</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="304">
@@ -3705,10 +3705,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-27</v>
+        <v>-31.58333333333333</v>
       </c>
       <c r="C304" t="n">
-        <v>-71</v>
+        <v>-71.58333333333333</v>
       </c>
     </row>
     <row r="305">
@@ -3716,10 +3716,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-27</v>
+        <v>-30.25</v>
       </c>
       <c r="C305" t="n">
-        <v>-71</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="306">
@@ -3727,10 +3727,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-27</v>
+        <v>-30.25</v>
       </c>
       <c r="C306" t="n">
-        <v>-71</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="307">
@@ -3738,10 +3738,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-27</v>
+        <v>-30.16666666666666</v>
       </c>
       <c r="C307" t="n">
-        <v>-71</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="308">
@@ -3749,10 +3749,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-27</v>
+        <v>-30.16666666666666</v>
       </c>
       <c r="C308" t="n">
-        <v>-70.75</v>
+        <v>-71.41666666666666</v>
       </c>
     </row>
     <row r="309">
@@ -3760,10 +3760,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="C309" t="n">
-        <v>-70.75</v>
+        <v>-71.33333333333333</v>
       </c>
     </row>
     <row r="310">
@@ -3771,10 +3771,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-27</v>
+        <v>-29.91666666666666</v>
       </c>
       <c r="C310" t="n">
-        <v>-70.75</v>
+        <v>-71.33333333333333</v>
       </c>
     </row>
     <row r="311">
@@ -3782,10 +3782,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-27</v>
+        <v>-28.5</v>
       </c>
       <c r="C311" t="n">
-        <v>-70.75</v>
+        <v>-71.25</v>
       </c>
     </row>
     <row r="312">
@@ -3793,10 +3793,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-27</v>
+        <v>-28.5</v>
       </c>
       <c r="C312" t="n">
-        <v>-70.75</v>
+        <v>-71.25</v>
       </c>
     </row>
     <row r="313">
@@ -3804,10 +3804,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-27</v>
+        <v>-28.5</v>
       </c>
       <c r="C313" t="n">
-        <v>-70.75</v>
+        <v>-71.25</v>
       </c>
     </row>
     <row r="314">
@@ -3815,10 +3815,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-27</v>
+        <v>-28.5</v>
       </c>
       <c r="C314" t="n">
-        <v>-70.75</v>
+        <v>-71.25</v>
       </c>
     </row>
     <row r="315">
@@ -3826,10 +3826,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-27</v>
+        <v>-28.5</v>
       </c>
       <c r="C315" t="n">
-        <v>-70.75</v>
+        <v>-71.25</v>
       </c>
     </row>
     <row r="316">
@@ -3837,10 +3837,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-27</v>
+        <v>-28.41666666666666</v>
       </c>
       <c r="C316" t="n">
-        <v>-70.75</v>
+        <v>-71.25</v>
       </c>
     </row>
     <row r="317">
@@ -3848,10 +3848,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-27</v>
+        <v>-28.41666666666666</v>
       </c>
       <c r="C317" t="n">
-        <v>-70.75</v>
+        <v>-71.25</v>
       </c>
     </row>
     <row r="318">
@@ -3859,10 +3859,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-27</v>
+        <v>-28.33333333333333</v>
       </c>
       <c r="C318" t="n">
-        <v>-70.75</v>
+        <v>-71.16666666666666</v>
       </c>
     </row>
     <row r="319">
@@ -3870,10 +3870,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-27</v>
+        <v>-28.33333333333333</v>
       </c>
       <c r="C319" t="n">
-        <v>-70.75</v>
+        <v>-71.16666666666666</v>
       </c>
     </row>
     <row r="320">
@@ -3881,10 +3881,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-27</v>
+        <v>-28.33333333333333</v>
       </c>
       <c r="C320" t="n">
-        <v>-70.75</v>
+        <v>-71.16666666666666</v>
       </c>
     </row>
     <row r="321">
@@ -3892,10 +3892,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-27</v>
+        <v>-28.16666666666666</v>
       </c>
       <c r="C321" t="n">
-        <v>-70.75</v>
+        <v>-71.16666666666666</v>
       </c>
     </row>
     <row r="322">
@@ -3903,10 +3903,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-27</v>
+        <v>-28.08333333333333</v>
       </c>
       <c r="C322" t="n">
-        <v>-70.75</v>
+        <v>-71.16666666666666</v>
       </c>
     </row>
     <row r="323">
@@ -3914,10 +3914,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-27</v>
+        <v>-28.08333333333333</v>
       </c>
       <c r="C323" t="n">
-        <v>-70.75</v>
+        <v>-71.16666666666666</v>
       </c>
     </row>
     <row r="324">
@@ -3925,10 +3925,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-27</v>
+        <v>-27.66666666666666</v>
       </c>
       <c r="C324" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="325">
@@ -3936,10 +3936,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-27</v>
+        <v>-27.5</v>
       </c>
       <c r="C325" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="326">
@@ -3947,10 +3947,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-27</v>
+        <v>-27.5</v>
       </c>
       <c r="C326" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="327">
@@ -3958,10 +3958,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-27</v>
+        <v>-27.5</v>
       </c>
       <c r="C327" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="328">
@@ -3969,10 +3969,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-27</v>
+        <v>-27.33333333333333</v>
       </c>
       <c r="C328" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="329">
@@ -3980,10 +3980,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-27</v>
+        <v>-27.33333333333333</v>
       </c>
       <c r="C329" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="330">
@@ -3991,10 +3991,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-27</v>
+        <v>-27.33333333333333</v>
       </c>
       <c r="C330" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="331">
@@ -4002,10 +4002,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-27</v>
+        <v>-27.33333333333333</v>
       </c>
       <c r="C331" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="332">
@@ -4013,10 +4013,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-27</v>
+        <v>-27.33333333333333</v>
       </c>
       <c r="C332" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="333">
@@ -4024,10 +4024,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-27</v>
+        <v>-27.33333333333333</v>
       </c>
       <c r="C333" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="334">
@@ -4035,10 +4035,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-27</v>
+        <v>-27.33333333333333</v>
       </c>
       <c r="C334" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="335">
@@ -4046,10 +4046,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-27</v>
+        <v>-27.33333333333333</v>
       </c>
       <c r="C335" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="336">
@@ -4057,10 +4057,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-27</v>
+        <v>-27.33333333333333</v>
       </c>
       <c r="C336" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="337">
@@ -4068,10 +4068,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-27</v>
+        <v>-27.25</v>
       </c>
       <c r="C337" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="338">
@@ -4079,10 +4079,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-27</v>
+        <v>-27.25</v>
       </c>
       <c r="C338" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="339">
@@ -4090,10 +4090,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-27</v>
+        <v>-27.25</v>
       </c>
       <c r="C339" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="340">
@@ -4101,10 +4101,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-27</v>
+        <v>-27.25</v>
       </c>
       <c r="C340" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="341">
@@ -4112,10 +4112,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-27</v>
+        <v>-27.25</v>
       </c>
       <c r="C341" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="342">
@@ -4123,10 +4123,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-27</v>
+        <v>-27.25</v>
       </c>
       <c r="C342" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="343">
@@ -4134,10 +4134,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-27</v>
+        <v>-27.25</v>
       </c>
       <c r="C343" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="344">
@@ -4145,10 +4145,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C344" t="n">
-        <v>-70.75</v>
+        <v>-109.4166666666667</v>
       </c>
     </row>
     <row r="345">
@@ -4156,10 +4156,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C345" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="346">
@@ -4167,10 +4167,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C346" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="347">
@@ -4178,10 +4178,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C347" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="348">
@@ -4189,10 +4189,10 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C348" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="349">
@@ -4200,10 +4200,10 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C349" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="350">
@@ -4211,10 +4211,10 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C350" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="351">
@@ -4222,10 +4222,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C351" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="352">
@@ -4233,10 +4233,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C352" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="353">
@@ -4244,10 +4244,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C353" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="354">
@@ -4255,10 +4255,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C354" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="355">
@@ -4266,10 +4266,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-27</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C355" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="356">
@@ -4277,10 +4277,10 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-26.75</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C356" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="357">
@@ -4288,10 +4288,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-26.75</v>
+        <v>-27.16666666666666</v>
       </c>
       <c r="C357" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="358">
@@ -4299,10 +4299,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-26.75</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C358" t="n">
-        <v>-70.75</v>
+        <v>-109.3333333333333</v>
       </c>
     </row>
     <row r="359">
@@ -4310,10 +4310,10 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-26.75</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C359" t="n">
-        <v>-70.75</v>
+        <v>-109.3333333333333</v>
       </c>
     </row>
     <row r="360">
@@ -4321,10 +4321,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-26.5</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C360" t="n">
-        <v>-70.75</v>
+        <v>-109.3333333333333</v>
       </c>
     </row>
     <row r="361">
@@ -4332,10 +4332,10 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-26.5</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C361" t="n">
-        <v>-70.75</v>
+        <v>-109.3333333333333</v>
       </c>
     </row>
     <row r="362">
@@ -4343,10 +4343,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-26.5</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C362" t="n">
-        <v>-70.75</v>
+        <v>-109.3333333333333</v>
       </c>
     </row>
     <row r="363">
@@ -4354,10 +4354,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-26.5</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C363" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="364">
@@ -4365,10 +4365,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-26.5</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C364" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="365">
@@ -4376,10 +4376,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-26.5</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C365" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="366">
@@ -4387,10 +4387,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C366" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="367">
@@ -4398,10 +4398,10 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C367" t="n">
-        <v>-70.75</v>
+        <v>-70.91666666666666</v>
       </c>
     </row>
     <row r="368">
@@ -4409,10 +4409,10 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C368" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="369">
@@ -4420,10 +4420,10 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C369" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="370">
@@ -4431,10 +4431,10 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C370" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="371">
@@ -4442,10 +4442,10 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C371" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="372">
@@ -4453,10 +4453,10 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C372" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="373">
@@ -4464,10 +4464,10 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C373" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="374">
@@ -4475,10 +4475,10 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C374" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="375">
@@ -4486,10 +4486,10 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C375" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="376">
@@ -4497,10 +4497,10 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C376" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="377">
@@ -4508,10 +4508,10 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C377" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="378">
@@ -4519,10 +4519,10 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C378" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="379">
@@ -4530,10 +4530,10 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C379" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="380">
@@ -4541,10 +4541,10 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C380" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="381">
@@ -4552,10 +4552,10 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C381" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="382">
@@ -4563,10 +4563,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C382" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="383">
@@ -4574,10 +4574,10 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C383" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="384">
@@ -4585,10 +4585,10 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C384" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="385">
@@ -4596,10 +4596,10 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C385" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="386">
@@ -4607,10 +4607,10 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C386" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="387">
@@ -4618,10 +4618,10 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C387" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="388">
@@ -4629,10 +4629,10 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-26.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C388" t="n">
-        <v>-70.75</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="389">
@@ -4640,10 +4640,10 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-25.5</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C389" t="n">
-        <v>-70.5</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="390">
@@ -4651,10 +4651,10 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-25.5</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C390" t="n">
-        <v>-70.5</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="391">
@@ -4662,10 +4662,10 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-25.5</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C391" t="n">
-        <v>-70.5</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="392">
@@ -4673,10 +4673,10 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-25.5</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C392" t="n">
-        <v>-70.5</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="393">
@@ -4684,10 +4684,10 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-23.75</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C393" t="n">
-        <v>-70.5</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="394">
@@ -4695,10 +4695,10 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-23.75</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C394" t="n">
-        <v>-70.5</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="395">
@@ -4706,10 +4706,10 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-23</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C395" t="n">
-        <v>-70.5</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="396">
@@ -4717,10 +4717,10 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-23</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C396" t="n">
-        <v>-70.5</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="397">
@@ -4728,10 +4728,10 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>-23</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C397" t="n">
-        <v>-70.5</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="398">
@@ -4739,10 +4739,10 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>-22.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C398" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="399">
@@ -4750,10 +4750,10 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>-22.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C399" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="400">
@@ -4761,10 +4761,10 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>-22.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C400" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="401">
@@ -4772,10 +4772,10 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>-22.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C401" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="402">
@@ -4783,10 +4783,10 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>-22.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C402" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="403">
@@ -4794,10 +4794,10 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>-22.25</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C403" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="404">
@@ -4805,10 +4805,10 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>-22</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C404" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="405">
@@ -4816,10 +4816,10 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>-22</v>
+        <v>-27.08333333333333</v>
       </c>
       <c r="C405" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="406">
@@ -4827,10 +4827,10 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="C406" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="407">
@@ -4838,10 +4838,10 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="C407" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="408">
@@ -4849,10 +4849,10 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="C408" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="409">
@@ -4860,10 +4860,10 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="C409" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="410">
@@ -4871,10 +4871,10 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="C410" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="411">
@@ -4882,10 +4882,10 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="C411" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="412">
@@ -4893,10 +4893,10 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="C412" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="413">
@@ -4904,10 +4904,10 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="C413" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="414">
@@ -4915,10 +4915,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>-21.25</v>
+        <v>-27</v>
       </c>
       <c r="C414" t="n">
-        <v>-70</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="415">
@@ -4926,10 +4926,10 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>-21.25</v>
+        <v>-27</v>
       </c>
       <c r="C415" t="n">
-        <v>-70</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="416">
@@ -4937,10 +4937,10 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>-20.75</v>
+        <v>-27</v>
       </c>
       <c r="C416" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="417">
@@ -4948,10 +4948,10 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>-20.75</v>
+        <v>-27</v>
       </c>
       <c r="C417" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="418">
@@ -4959,10 +4959,10 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>-20.75</v>
+        <v>-27</v>
       </c>
       <c r="C418" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="419">
@@ -4970,10 +4970,10 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>-20.75</v>
+        <v>-27</v>
       </c>
       <c r="C419" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="420">
@@ -4981,10 +4981,10 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>-20.75</v>
+        <v>-27</v>
       </c>
       <c r="C420" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="421">
@@ -4992,10 +4992,10 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>-20.5</v>
+        <v>-27</v>
       </c>
       <c r="C421" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="422">
@@ -5003,10 +5003,10 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>-20.25</v>
+        <v>-27</v>
       </c>
       <c r="C422" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="423">
@@ -5014,10 +5014,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>-20.25</v>
+        <v>-27</v>
       </c>
       <c r="C423" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="424">
@@ -5025,10 +5025,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>-20.25</v>
+        <v>-27</v>
       </c>
       <c r="C424" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="425">
@@ -5036,10 +5036,10 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>-20.25</v>
+        <v>-27</v>
       </c>
       <c r="C425" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="426">
@@ -5047,10 +5047,10 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>-20.25</v>
+        <v>-27</v>
       </c>
       <c r="C426" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="427">
@@ -5058,10 +5058,10 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>-20.25</v>
+        <v>-27</v>
       </c>
       <c r="C427" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="428">
@@ -5069,10 +5069,10 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>-20.25</v>
+        <v>-27</v>
       </c>
       <c r="C428" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="429">
@@ -5080,10 +5080,10 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>-20.25</v>
+        <v>-27</v>
       </c>
       <c r="C429" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="430">
@@ -5091,10 +5091,10 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>-20.25</v>
+        <v>-27</v>
       </c>
       <c r="C430" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="431">
@@ -5102,10 +5102,10 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>-20.25</v>
+        <v>-27</v>
       </c>
       <c r="C431" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="432">
@@ -5113,10 +5113,10 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>-20.25</v>
+        <v>-27</v>
       </c>
       <c r="C432" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="433">
@@ -5124,10 +5124,10 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>-19.5</v>
+        <v>-27</v>
       </c>
       <c r="C433" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="434">
@@ -5135,10 +5135,10 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>-18.5</v>
+        <v>-27</v>
       </c>
       <c r="C434" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="435">
@@ -5146,10 +5146,10 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>-18.5</v>
+        <v>-26.83333333333333</v>
       </c>
       <c r="C435" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="436">
@@ -5157,10 +5157,10 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>-18.5</v>
+        <v>-26.83333333333333</v>
       </c>
       <c r="C436" t="n">
-        <v>-70.25</v>
+        <v>-70.83333333333333</v>
       </c>
     </row>
     <row r="437">
@@ -5168,10 +5168,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>-18.5</v>
+        <v>-26.75</v>
       </c>
       <c r="C437" t="n">
-        <v>-70.25</v>
+        <v>-70.75</v>
       </c>
     </row>
     <row r="438">
@@ -5179,10 +5179,956 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
+        <v>-26.75</v>
+      </c>
+      <c r="C438" t="n">
+        <v>-70.75</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>-26.66666666666666</v>
+      </c>
+      <c r="C439" t="n">
+        <v>-70.75</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>-26.58333333333333</v>
+      </c>
+      <c r="C440" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>-26.58333333333333</v>
+      </c>
+      <c r="C441" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>-26.58333333333333</v>
+      </c>
+      <c r="C442" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>-26.58333333333333</v>
+      </c>
+      <c r="C443" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>-26.58333333333333</v>
+      </c>
+      <c r="C444" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="C445" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="C446" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="C447" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>-26.41666666666666</v>
+      </c>
+      <c r="C448" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>-26.33333333333333</v>
+      </c>
+      <c r="C449" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>-26.33333333333333</v>
+      </c>
+      <c r="C450" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>-26.33333333333333</v>
+      </c>
+      <c r="C451" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>-26.33333333333333</v>
+      </c>
+      <c r="C452" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>-26.33333333333333</v>
+      </c>
+      <c r="C453" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>-26.33333333333333</v>
+      </c>
+      <c r="C454" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>-26.33333333333333</v>
+      </c>
+      <c r="C455" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>-26.33333333333333</v>
+      </c>
+      <c r="C456" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>-26.33333333333333</v>
+      </c>
+      <c r="C457" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>-26.33333333333333</v>
+      </c>
+      <c r="C458" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>-26.25</v>
+      </c>
+      <c r="C459" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>-26.25</v>
+      </c>
+      <c r="C460" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>-26.25</v>
+      </c>
+      <c r="C461" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C462" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C463" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C464" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C465" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C466" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C467" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C468" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C469" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C470" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C471" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C472" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C473" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>-26.16666666666666</v>
+      </c>
+      <c r="C474" t="n">
+        <v>-70.66666666666666</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>-25.41666666666666</v>
+      </c>
+      <c r="C475" t="n">
+        <v>-70.5</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>-25.41666666666666</v>
+      </c>
+      <c r="C476" t="n">
+        <v>-70.5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>-25.41666666666666</v>
+      </c>
+      <c r="C477" t="n">
+        <v>-70.5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>-25.41666666666666</v>
+      </c>
+      <c r="C478" t="n">
+        <v>-70.5</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>-23.75</v>
+      </c>
+      <c r="C479" t="n">
+        <v>-70.5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>-23.66666666666666</v>
+      </c>
+      <c r="C480" t="n">
+        <v>-70.41666666666666</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>-23.08333333333333</v>
+      </c>
+      <c r="C481" t="n">
+        <v>-70.41666666666666</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>-23.08333333333333</v>
+      </c>
+      <c r="C482" t="n">
+        <v>-70.41666666666666</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>-23.08333333333333</v>
+      </c>
+      <c r="C483" t="n">
+        <v>-70.41666666666666</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>-22.33333333333333</v>
+      </c>
+      <c r="C484" t="n">
+        <v>-70.25</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>-22.25</v>
+      </c>
+      <c r="C485" t="n">
+        <v>-70.25</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>-22.25</v>
+      </c>
+      <c r="C486" t="n">
+        <v>-70.25</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>-22.25</v>
+      </c>
+      <c r="C487" t="n">
+        <v>-70.25</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>-22.25</v>
+      </c>
+      <c r="C488" t="n">
+        <v>-70.25</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>-22.16666666666666</v>
+      </c>
+      <c r="C489" t="n">
+        <v>-70.25</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>-22.08333333333333</v>
+      </c>
+      <c r="C490" t="n">
+        <v>-70.25</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>-22.08333333333333</v>
+      </c>
+      <c r="C491" t="n">
+        <v>-70.25</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>-22.08333333333333</v>
+      </c>
+      <c r="C492" t="n">
+        <v>-70.25</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>-22.08333333333333</v>
+      </c>
+      <c r="C493" t="n">
+        <v>-70.25</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>-22.08333333333333</v>
+      </c>
+      <c r="C494" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>-22.08333333333333</v>
+      </c>
+      <c r="C495" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>-22.08333333333333</v>
+      </c>
+      <c r="C496" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>-22.08333333333333</v>
+      </c>
+      <c r="C497" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>-21.91666666666666</v>
+      </c>
+      <c r="C498" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>-21.91666666666666</v>
+      </c>
+      <c r="C499" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>-21.33333333333333</v>
+      </c>
+      <c r="C500" t="n">
+        <v>-70.08333333333333</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>-21.33333333333333</v>
+      </c>
+      <c r="C501" t="n">
+        <v>-70.08333333333333</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>-20.66666666666666</v>
+      </c>
+      <c r="C502" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>-20.66666666666666</v>
+      </c>
+      <c r="C503" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>-20.66666666666666</v>
+      </c>
+      <c r="C504" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>-20.66666666666666</v>
+      </c>
+      <c r="C505" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>-20.66666666666666</v>
+      </c>
+      <c r="C506" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>-20.41666666666666</v>
+      </c>
+      <c r="C507" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="C508" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="C509" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="C510" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="C511" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="C512" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="C513" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="C514" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="C515" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="C516" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="C517" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>-20.25</v>
+      </c>
+      <c r="C518" t="n">
+        <v>-70.16666666666666</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>-19.58333333333333</v>
+      </c>
+      <c r="C519" t="n">
+        <v>-70.25</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
         <v>-18.5</v>
       </c>
-      <c r="C438" t="n">
-        <v>-70.25</v>
+      <c r="C520" t="n">
+        <v>-70.33333333333333</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="C521" t="n">
+        <v>-70.33333333333333</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="C522" t="n">
+        <v>-70.33333333333333</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="C523" t="n">
+        <v>-70.33333333333333</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>-18.41666666666666</v>
+      </c>
+      <c r="C524" t="n">
+        <v>-70.33333333333333</v>
       </c>
     </row>
   </sheetData>
